--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3606.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3606.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3606</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Calum Scott Macleod</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2858</t>
+          <t>2858</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>01/04/2009</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2952</t>
+          <t>2952</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2960</t>
+          <t>2960</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2964</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3299</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3301</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3308</t>
+          <t>3308</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3428</t>
+          <t>3428</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3522</t>
+          <t>3522</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3523</t>
+          <t>3523</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3552</t>
+          <t>3552</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3554</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3556</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3604</t>
+          <t>3604</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3611</t>
+          <t>3611</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3613</t>
+          <t>3613</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1840,7 +1904,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -1848,7 +1911,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3733</t>
+          <t>3733</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1900,7 +1963,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1952,7 +2015,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2004,7 +2067,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2056,7 +2119,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2108,7 +2171,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2160,7 +2223,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2212,7 +2275,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3880</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2264,7 +2327,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2316,7 +2379,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2368,7 +2431,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3933</t>
+          <t>3933</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2420,7 +2483,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2472,7 +2535,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3979</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2524,7 +2587,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2576,7 +2639,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2628,7 +2691,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2680,7 +2743,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4077</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2732,7 +2795,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2784,7 +2847,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2836,7 +2899,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2888,7 +2951,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2940,7 +3003,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2992,7 +3055,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4118</t>
+          <t>4118</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3044,7 +3107,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4120</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3096,7 +3159,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3148,7 +3211,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4142</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3200,7 +3263,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4153</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3252,7 +3315,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3304,7 +3367,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3356,7 +3419,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3408,7 +3471,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3460,7 +3523,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3512,7 +3575,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3564,7 +3627,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4363</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3616,7 +3679,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3668,7 +3731,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3720,7 +3783,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3772,7 +3835,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3824,7 +3887,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3876,7 +3939,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4386</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3928,7 +3991,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4461</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3980,7 +4043,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4462</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4032,7 +4095,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4510</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4084,7 +4147,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4136,7 +4199,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4513</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4188,7 +4251,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4515</t>
+          <t>4515</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4240,7 +4303,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4569</t>
+          <t>4569</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4292,7 +4355,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4570</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4344,7 +4407,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4572</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4396,7 +4459,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4575</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4448,7 +4511,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4576</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4500,7 +4563,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4578</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4552,7 +4615,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4581</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4604,7 +4667,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4604</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4656,7 +4719,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4610</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4708,7 +4771,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4612</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4760,7 +4823,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4617</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4812,7 +4875,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4864,7 +4927,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4916,7 +4979,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4631</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4968,7 +5031,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5020,7 +5083,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4635</t>
+          <t>4635</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5059,7 +5122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5081,7 +5144,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5118,7 +5181,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2952</t>
+          <t>2952</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5155,7 +5218,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2960</t>
+          <t>2960</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5192,7 +5255,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2964</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5229,7 +5292,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3522</t>
+          <t>3522</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5266,7 +5329,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3523</t>
+          <t>3523</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5303,7 +5366,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3552</t>
+          <t>3552</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5340,7 +5403,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3554</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5377,7 +5440,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3604</t>
+          <t>3604</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5414,7 +5477,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3611</t>
+          <t>3611</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5451,7 +5514,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3613</t>
+          <t>3613</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5488,7 +5551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5525,7 +5588,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5562,7 +5625,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3880</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5599,7 +5662,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5636,7 +5699,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5673,7 +5736,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3979</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5710,7 +5773,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5747,7 +5810,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5784,7 +5847,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5821,7 +5884,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5858,7 +5921,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5895,7 +5958,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4118</t>
+          <t>4118</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5932,7 +5995,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4120</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5969,7 +6032,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4153</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6006,7 +6069,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6043,7 +6106,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6080,7 +6143,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4363</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6117,7 +6180,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6154,7 +6217,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6191,7 +6254,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6228,7 +6291,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4386</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6265,7 +6328,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4510</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6302,7 +6365,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6339,7 +6402,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4569</t>
+          <t>4569</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6376,7 +6439,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4575</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6413,7 +6476,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4576</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6450,7 +6513,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4578</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6487,7 +6550,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4581</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6524,7 +6587,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4631</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6561,7 +6624,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6598,7 +6661,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4635</t>
+          <t>4635</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6624,6 +6687,587 @@
       <c r="G42" t="inlineStr">
         <is>
           <t>0/11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4510</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4512</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9.52%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4513</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4515</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4569</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11.27%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4570</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8.84%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4572</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2.79%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19.42%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>9.22%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11.70%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>19.38%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.03%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.94%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>49.23%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.01%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.31%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3606.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3606.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6747,467 +6748,766 @@
           <t>4510</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4512</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9.52%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4513</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4515</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4569</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11.27%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4570</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8.84%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4572</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2.79%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19.42%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>9.22%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11.70%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>19.38%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.03%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.94%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>49.23%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.01%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.31%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4118</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4512</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+          <t>4120</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9.52%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4513</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>4153</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4515</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>4155</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4569</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>11.27%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4570</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+          <t>4363</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.84%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4572</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+          <t>4364</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.79%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4575</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
+          <t>4366</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>19.42%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.33%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4381</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4578</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+          <t>4386</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9.22%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4510</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
+          <t>4512</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>19.38%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
+          <t>4569</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.03%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4612</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>26.94%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4617</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>49.23%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.29%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>29.01%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7217,13 +7517,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7231,29 +7524,12 @@
           <t>4632</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>30.31%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7263,13 +7539,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3606.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3606.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -610,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>01/04/2009</t>
@@ -1905,6 +1904,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -6694,853 +6694,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4510</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4512</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9.52%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4513</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4515</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4569</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>11.27%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4570</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.84%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4572</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.79%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4575</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>19.42%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.33%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4578</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9.22%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>19.38%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.03%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4612</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>26.94%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4617</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>49.23%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.29%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>29.01%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4631</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>30.31%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4635</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4118</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4120</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4153</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4155</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4158</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4363</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4364</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4366</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4381</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4386</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4510</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4512</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4569</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4575</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4578</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4631</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4635</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>